--- a/main/StructureDefinition-bc-organization.xlsx
+++ b/main/StructureDefinition-bc-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -316,10 +316,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Organization.implicitRules</t>
   </si>
   <si>
@@ -339,6 +346,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Organization.language</t>
   </si>
   <si>
@@ -416,26 +426,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -462,10 +479,6 @@
     <t>Indentifies languages that services are provided in at the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Organization.extension:status</t>
   </si>
   <si>
@@ -565,10 +578,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -576,9 +585,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -601,8 +607,8 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-1
-</t>
+    <t>ele-1
+org-1</t>
   </si>
   <si>
     <t>XON.10 / XON.3</t>
@@ -688,9 +694,6 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
@@ -737,6 +740,12 @@
     <t>Organization.name.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -854,12 +863,12 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-3
-</t>
+    <t>ele-1
+org-3</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -890,8 +899,8 @@
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-2
-</t>
+    <t>ele-1
+org-2</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -919,7 +928,7 @@
     <t>Organization.address.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.address.extension:preferred</t>
@@ -1034,6 +1043,9 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>137 Nowhere Street</t>
   </si>
   <si>
@@ -1193,6 +1205,10 @@
   </si>
   <si>
     <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
     <t>Allows addresses to be placed in historical context.</t>
@@ -1207,6 +1223,10 @@
     <t>Address.period</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
@@ -1229,7 +1249,14 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
@@ -1263,12 +1290,6 @@
     <t>Organization.contact.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Organization.contact.modifierExtension</t>
   </si>
   <si>
@@ -1295,6 +1316,9 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1305,6 +1329,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>./type</t>
@@ -1323,6 +1350,9 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
@@ -1330,6 +1360,9 @@
   </si>
   <si>
     <t>./name</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -1348,10 +1381,17 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>./telecom</t>
+  </si>
+  <si>
+    <t>ContactPoint</t>
   </si>
   <si>
     <t>Organization.contact.address</t>
@@ -1367,6 +1407,9 @@
     <t>Visiting or postal addresses for the contact.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
@@ -1374,6 +1417,9 @@
   </si>
   <si>
     <t>./addr</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1390,6 +1436,9 @@
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1801,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="70.30078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2199,16 +2248,16 @@
         <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -2219,10 +2268,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2245,16 +2294,16 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2304,7 +2353,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2313,16 +2362,16 @@
         <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2333,10 +2382,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2359,16 +2408,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2394,13 +2443,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2418,7 +2467,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2427,16 +2476,16 @@
         <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -2447,14 +2496,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2473,16 +2522,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2532,7 +2581,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2541,16 +2590,16 @@
         <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2561,14 +2610,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2587,16 +2636,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2646,7 +2695,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2664,7 +2713,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2675,14 +2724,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2701,15 +2750,17 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2746,17 +2797,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2765,16 +2818,16 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2785,16 +2838,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2813,15 +2866,17 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2870,7 +2925,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2879,16 +2934,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2899,13 +2954,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2927,13 +2982,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2984,7 +3039,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2993,10 +3048,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -3013,13 +3068,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -3041,13 +3096,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3098,7 +3153,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3107,10 +3162,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -3127,13 +3182,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3155,13 +3210,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3212,7 +3267,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3221,10 +3276,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3241,13 +3296,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3269,13 +3324,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3326,7 +3381,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3335,10 +3390,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3355,13 +3410,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3383,13 +3438,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3440,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3449,10 +3504,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3469,13 +3524,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
@@ -3497,13 +3552,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3554,7 +3609,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3563,10 +3618,10 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3583,14 +3638,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3609,19 +3664,19 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3658,19 +3713,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3679,16 +3734,16 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3699,10 +3754,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3725,17 +3780,17 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3784,7 +3839,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3793,30 +3848,30 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3839,70 +3894,70 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3911,30 +3966,30 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3957,19 +4012,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3994,11 +4049,11 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4016,7 +4071,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4025,30 +4080,30 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4071,19 +4126,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4132,7 +4187,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4141,19 +4196,19 @@
         <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4161,10 +4216,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4187,13 +4242,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4244,7 +4299,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4273,10 +4328,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4299,13 +4354,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4344,17 +4399,17 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4366,7 +4421,7 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
@@ -4383,13 +4438,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>76</v>
@@ -4411,13 +4466,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4468,7 +4523,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4477,10 +4532,10 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
@@ -4497,13 +4552,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
@@ -4525,13 +4580,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4582,7 +4637,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4591,10 +4646,10 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4611,13 +4666,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
@@ -4639,13 +4694,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4696,7 +4751,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4705,10 +4760,10 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4725,13 +4780,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>76</v>
@@ -4753,13 +4808,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4810,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4819,10 +4874,10 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4839,10 +4894,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4865,13 +4920,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4895,7 +4950,7 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>76</v>
@@ -4922,7 +4977,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4951,10 +5006,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4977,19 +5032,19 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5038,7 +5093,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5047,16 +5102,16 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5067,10 +5122,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5093,19 +5148,19 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5154,7 +5209,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5163,19 +5218,19 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5183,10 +5238,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5209,19 +5264,19 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5270,7 +5325,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5279,19 +5334,19 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5299,10 +5354,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5325,13 +5380,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5382,7 +5437,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5400,7 +5455,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5411,14 +5466,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5437,15 +5492,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5482,19 +5539,19 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5503,16 +5560,16 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5523,16 +5580,16 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5551,15 +5608,17 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5608,7 +5667,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5617,16 +5676,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5637,10 +5696,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5663,19 +5722,19 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5688,7 +5747,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -5700,13 +5759,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5724,7 +5783,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5733,19 +5792,19 @@
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5753,10 +5812,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5779,16 +5838,16 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5802,7 +5861,7 @@
         <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>76</v>
@@ -5814,13 +5873,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5838,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5847,16 +5906,16 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5867,10 +5926,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5893,19 +5952,19 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5918,7 +5977,7 @@
         <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>76</v>
@@ -5954,7 +6013,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5963,16 +6022,16 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5983,10 +6042,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6009,15 +6068,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6030,7 +6091,7 @@
         <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>76</v>
@@ -6066,7 +6127,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6075,19 +6136,19 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6095,14 +6156,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6121,15 +6182,17 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6142,7 +6205,7 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>76</v>
@@ -6178,7 +6241,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6187,19 +6250,19 @@
         <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6207,14 +6270,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6233,16 +6296,16 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6256,7 +6319,7 @@
         <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>76</v>
@@ -6292,7 +6355,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6301,16 +6364,16 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6321,14 +6384,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6347,15 +6410,17 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6404,7 +6469,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6413,19 +6478,19 @@
         <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6433,14 +6498,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6459,15 +6524,17 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6480,7 +6547,7 @@
         <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>76</v>
@@ -6516,7 +6583,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6525,19 +6592,19 @@
         <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6545,10 +6612,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6571,16 +6638,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6630,7 +6697,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6639,19 +6706,19 @@
         <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6659,10 +6726,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6685,17 +6752,19 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6708,7 +6777,7 @@
         <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>76</v>
@@ -6744,7 +6813,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6753,19 +6822,19 @@
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6773,10 +6842,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6799,17 +6868,19 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6858,7 +6929,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6867,19 +6938,19 @@
         <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -6887,10 +6958,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6913,19 +6984,19 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6974,7 +7045,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6983,16 +7054,16 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7003,10 +7074,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7029,13 +7100,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7086,7 +7157,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7104,7 +7175,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7115,14 +7186,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7141,16 +7212,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>289</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7188,19 +7259,19 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7209,16 +7280,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7229,14 +7300,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7255,19 +7326,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7316,7 +7387,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7325,16 +7396,16 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7345,10 +7416,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7371,17 +7442,19 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7406,31 +7479,31 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Z50" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7439,16 +7512,16 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7459,10 +7532,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7485,17 +7558,19 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7544,7 +7619,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7553,19 +7628,19 @@
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7573,10 +7648,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7599,17 +7674,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7658,7 +7733,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7667,19 +7742,19 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>434</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7687,10 +7762,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7713,17 +7788,19 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7772,7 +7849,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7781,19 +7858,19 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7801,10 +7878,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7827,17 +7904,19 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7886,7 +7965,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7895,16 +7974,16 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>213</v>
+        <v>452</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>

--- a/main/StructureDefinition-bc-organization.xlsx
+++ b/main/StructureDefinition-bc-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-organization.xlsx
+++ b/main/StructureDefinition-bc-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-organization.xlsx
+++ b/main/StructureDefinition-bc-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -572,7 +572,7 @@
     <t>Extension to represent Availability, or hours of operation, for clinic, or other Profiles</t>
   </si>
   <si>
-    <t>Can represent the Available time or the Not Avaialble details</t>
+    <t>Can represent the Available time or the Not-Available details</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -697,13 +697,102 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Organization.name</t>
+    <t>Organization.type.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Organization.type.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.extension:HDSType</t>
+  </si>
+  <si>
+    <t>HDSType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-health-delivery-site-type-extension}
+</t>
+  </si>
+  <si>
+    <t>BC Health Delivery Site Type Extension</t>
+  </si>
+  <si>
+    <t>Uses to define HDS Type and HDS sub type</t>
+  </si>
+  <si>
+    <t>Organization.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Organization.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Organization.name</t>
+  </si>
+  <si>
     <t>Name used for the organization</t>
   </si>
   <si>
@@ -734,9 +823,6 @@
     <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.name.extension</t>
   </si>
   <si>
@@ -744,9 +830,6 @@
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.name.extension:use</t>
@@ -919,16 +1002,7 @@
     <t>Organization.address.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>Organization.address.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Organization.address.extension:preferred</t>
@@ -1756,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1765,17 +1839,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.5234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1784,26 +1858,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="70.30078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="60.26953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4000,7 +4074,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>87</v>
@@ -4117,13 +4191,13 @@
         <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>217</v>
@@ -4134,12 +4208,8 @@
       <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4187,7 +4257,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4196,19 +4266,19 @@
         <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4216,21 +4286,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4242,15 +4312,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4287,37 +4359,37 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4328,12 +4400,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4342,10 +4416,10 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
@@ -4354,13 +4428,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4399,17 +4473,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4438,14 +4514,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4454,28 +4528,32 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4523,7 +4601,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4532,16 +4610,16 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4555,11 +4633,9 @@
         <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4571,25 +4647,29 @@
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4637,25 +4717,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4666,14 +4746,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4691,19 +4769,23 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4751,28 +4833,28 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4780,14 +4862,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4799,7 +4879,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -4808,13 +4888,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4865,19 +4945,19 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4894,10 +4974,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4908,7 +4988,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4920,13 +5000,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4950,7 +5030,7 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>76</v>
@@ -4965,31 +5045,29 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -5006,12 +5084,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5020,10 +5100,10 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
@@ -5032,20 +5112,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5093,7 +5169,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5105,13 +5181,13 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5122,12 +5198,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5136,7 +5214,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>87</v>
@@ -5148,20 +5226,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5209,7 +5283,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5218,19 +5292,19 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5238,12 +5312,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5252,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -5264,20 +5340,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5325,7 +5397,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5334,19 +5406,19 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5354,12 +5426,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5371,7 +5445,7 @@
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -5380,13 +5454,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5437,25 +5511,25 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5466,21 +5540,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5492,17 +5566,15 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5524,7 +5596,7 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>76</v>
@@ -5539,37 +5611,37 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5580,23 +5652,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5608,18 +5678,20 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5667,7 +5739,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5679,13 +5751,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5696,10 +5768,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5710,31 +5782,31 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5747,64 +5819,64 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5812,10 +5884,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5826,30 +5898,32 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5861,64 +5935,64 @@
         <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5926,10 +6000,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5949,23 +6023,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5977,7 +6047,7 @@
         <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>76</v>
@@ -6013,7 +6083,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6022,16 +6092,16 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6042,14 +6112,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6065,19 +6135,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>222</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>327</v>
+        <v>137</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6091,7 +6161,7 @@
         <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>76</v>
@@ -6115,19 +6185,19 @@
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6139,16 +6209,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6156,14 +6226,16 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6179,19 +6251,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>327</v>
+        <v>137</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6205,7 +6277,7 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>76</v>
@@ -6241,28 +6313,28 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6270,14 +6342,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6290,24 +6362,26 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6319,7 +6393,7 @@
         <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>76</v>
@@ -6331,13 +6405,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6355,7 +6429,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6370,13 +6444,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6384,14 +6458,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6410,16 +6484,16 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6433,7 +6507,7 @@
         <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>76</v>
@@ -6445,13 +6519,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6469,7 +6543,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6484,13 +6558,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6498,14 +6572,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6527,15 +6601,17 @@
         <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6547,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>76</v>
@@ -6583,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6598,13 +6674,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6612,10 +6688,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6626,7 +6702,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6641,13 +6717,13 @@
         <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6661,7 +6737,7 @@
         <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>76</v>
@@ -6697,13 +6773,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
@@ -6712,13 +6788,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6726,14 +6802,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6752,20 +6828,18 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>377</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6777,7 +6851,7 @@
         <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>76</v>
@@ -6813,7 +6887,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6825,16 +6899,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6842,14 +6916,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6868,20 +6942,18 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6893,7 +6965,7 @@
         <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>76</v>
@@ -6929,7 +7001,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6941,16 +7013,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>394</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>201</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -6958,21 +7030,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6981,23 +7053,21 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7045,13 +7115,13 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
@@ -7060,13 +7130,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7074,14 +7144,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7097,18 +7167,20 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7121,7 +7193,7 @@
         <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>76</v>
@@ -7157,7 +7229,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7166,19 +7238,19 @@
         <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7186,21 +7258,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7209,19 +7281,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>135</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>289</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7259,40 +7331,40 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>100</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7300,45 +7372,45 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>137</v>
+        <v>404</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>181</v>
+        <v>405</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7351,7 +7423,7 @@
         <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>76</v>
@@ -7387,28 +7459,28 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7416,10 +7488,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7439,22 +7511,22 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>206</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7479,13 +7551,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7503,7 +7575,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7515,16 +7587,16 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>418</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7546,7 +7618,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7625,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -7634,13 +7706,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7648,10 +7720,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7662,7 +7734,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7674,18 +7746,16 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>430</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>218</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
+        <v>219</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7733,28 +7803,28 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>429</v>
+        <v>220</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>436</v>
+        <v>107</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7762,21 +7832,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7788,20 +7858,18 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>441</v>
+        <v>222</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7837,40 +7905,40 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>438</v>
+        <v>223</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>445</v>
+        <v>100</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>446</v>
+        <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7878,14 +7946,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7898,25 +7966,25 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>451</v>
+        <v>181</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7965,7 +8033,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7977,23 +8045,601 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AN56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8003,7 +8649,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
